--- a/client_account/test_Excel/アカウントリスト_単体テスト.xlsx
+++ b/client_account/test_Excel/アカウントリスト_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\task\task-nakano\account\client_account\test_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641A16EE-3B82-40DB-9A54-2C7BDB92F6E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35410516-D1B7-4889-B4E3-A5D438347FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3390" yWindow="0" windowWidth="19170" windowHeight="14440" activeTab="1" xr2:uid="{22FF1BFC-D58B-4D75-85F9-8EA1023FCF78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11280" windowHeight="14440" activeTab="1" xr2:uid="{22FF1BFC-D58B-4D75-85F9-8EA1023FCF78}"/>
   </bookViews>
   <sheets>
     <sheet name="D.I.Blog表紙" sheetId="2" r:id="rId1"/>
@@ -768,9 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -800,6 +797,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1123,366 +1123,366 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="13.08203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.6640625" style="10"/>
+    <col min="1" max="1" width="8.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="13.08203125" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>45295</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>45295</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1505,8 +1505,8 @@
   <cols>
     <col min="1" max="1" width="8.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.83203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="59.58203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.58203125" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.9140625" bestFit="1" customWidth="1"/>
@@ -1514,690 +1514,690 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>45295</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="7" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="8">
         <v>45295</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>45295</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>45295</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>45295</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="8">
         <v>45295</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="8">
         <v>45295</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="8">
         <v>45295</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="8">
         <v>45295</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>45295</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>45295</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="8">
         <v>45295</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="8">
         <v>45295</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>45295</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>45295</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>45295</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="35" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>45295</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
